--- a/artfynd/A 22257-2025 artfynd.xlsx
+++ b/artfynd/A 22257-2025 artfynd.xlsx
@@ -4089,7 +4089,7 @@
         <v>129373573</v>
       </c>
       <c r="B35" t="n">
-        <v>57733</v>
+        <v>57881</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
